--- a/Practical2/solution/practical2-code/analysis.xlsx
+++ b/Practical2/solution/practical2-code/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="32600" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="1260" yWindow="1520" windowWidth="32600" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="analysis.txt" sheetId="1" r:id="rId1"/>
